--- a/biology/Histoire de la zoologie et de la botanique/Systema_naturae/Systema_naturae.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Systema_naturae/Systema_naturae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le livre Systema naturæ per regna tria naturæ, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis (Système de la nature, en trois règnes de la Nature, divisés en classes, ordres, genres et espèces, avec les caractères, les différences, les synonymes et les localisations) (titre de la 10e édition de 1758) est l’œuvre majeure du médecin et botaniste suédois Carl von Linné (1707-1778).
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Entièrement rédigé en latin, Systema naturæ, paraît à Leyde en 1735 dans une première édition, sous la forme d'un opuscule ne comprenant que onze pages, dans lequel il expose sa méthode de classification de la nature. Durant trente-cinq ans, elle sera constamment revue et augmentée, bientôt répartie en trois tomes (un par règne). Les éditions s’enrichissant au fur et à mesure des nouvelles espèces découvertes par ses collaborateurs et des remaniements de sa classification. Si bien qu'en 1770, la treizième édition atteignait les 3 000 pages.
 Pour la sixième édition, publiée à Stockholm en 1748, le titre est légèrement modifié en Systema naturæ sistens regna tria naturæ, in classes et ordines, genera et species redacta tabulisque æneis illustrata, mettant l'accent sur l'ampleur prise par les tables et les illustrations, mais les éditions suivantes rétabliront le titre initial.
@@ -545,7 +559,9 @@
           <t>Le système linnéen : ordre et langage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Quoi qu'il en soit, la classification de Linné représentera un modèle pour plusieurs générations de naturalistes, gagnant peu à peu les opposants les plus farouches, comme les disciples de Buffon.
 C'est en effet dans cet ouvrage qu'il développe sa conception de l'ordre hiérarchique des espèces, qui sera « le premier essai de classification systématique » des trois règnes de la nature (deux règnes du monde vivant et un règne du monde inorganique), et qui va profondément bouleverser et inspirer l'histoire naturelle. Jusqu'alors et pendant deux siècles, les naturalistes avaient réuni une foule d’informations qu'il était nécessaire d'ordonner. Pour réorganiser ces connaissances suivant un ordre rigoureux et élaborer son système de classification, Linné s'inspire du concept d'espèce de John Ray : « ensemble d’individus qui engendrent, par la reproduction, d’autres individus semblables à eux-mêmes. »
@@ -579,7 +595,9 @@
           <t>Trois règnes de création divine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois règnes de la nature tels que les conçoit Linné sont (dans l'ordre ethnocentrique) le règne animal, le règne végétal et le règne minéral.
 C’est surtout la classification des plantes qui est bouleversée. Linné, s'inspirant du français Sébastien Vaillant base sa systématique sur les organes reproducteurs des végétaux, qui réunit les espèces ayant le même nombre d’étamines dans les mêmes groupes. Cette classification, qui ne lui a pas survécu, reste néanmoins le premier essai du genre. Linné révise sa nomenclature botanique dans Species plantarum publié en 1753.
